--- a/Code/Results/Cases/Case_1_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.8816449903389021</v>
+        <v>1.084461850806488</v>
       </c>
       <c r="D2">
-        <v>1.028103444018581</v>
+        <v>1.035966942793223</v>
       </c>
       <c r="E2">
-        <v>0.9073673515748952</v>
+        <v>1.084941446035002</v>
       </c>
       <c r="F2">
-        <v>0.9160096503938528</v>
+        <v>1.091366756559735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040999223751635</v>
+        <v>1.035196290025188</v>
       </c>
       <c r="J2">
-        <v>0.9080505629684648</v>
+        <v>1.089321515017736</v>
       </c>
       <c r="K2">
-        <v>1.039184659728659</v>
+        <v>1.038762032748761</v>
       </c>
       <c r="L2">
-        <v>0.9202881644203208</v>
+        <v>1.087603161880338</v>
       </c>
       <c r="M2">
-        <v>0.9287779276551488</v>
+        <v>1.094011932972122</v>
       </c>
       <c r="N2">
-        <v>0.9093400989227354</v>
+        <v>1.090868476515985</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9169609030197213</v>
+        <v>1.088400404273401</v>
       </c>
       <c r="D3">
-        <v>1.032301383465089</v>
+        <v>1.036543744345057</v>
       </c>
       <c r="E3">
-        <v>0.9383891487117488</v>
+        <v>1.088429186497859</v>
       </c>
       <c r="F3">
-        <v>0.9469005220890317</v>
+        <v>1.094844316924935</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04373275805737</v>
+        <v>1.035421127384873</v>
       </c>
       <c r="J3">
-        <v>0.9400031929107204</v>
+        <v>1.092909335410998</v>
       </c>
       <c r="K3">
-        <v>1.042536993280769</v>
+        <v>1.039148956674079</v>
       </c>
       <c r="L3">
-        <v>0.949876162079075</v>
+        <v>1.090903600364728</v>
       </c>
       <c r="M3">
-        <v>0.9582611421112791</v>
+        <v>1.097303484020031</v>
       </c>
       <c r="N3">
-        <v>0.9413381052645269</v>
+        <v>1.094461392025734</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9365985212919584</v>
+        <v>1.090924434630436</v>
       </c>
       <c r="D4">
-        <v>1.034769548930214</v>
+        <v>1.036914510511331</v>
       </c>
       <c r="E4">
-        <v>0.9556741125138937</v>
+        <v>1.090663065324709</v>
       </c>
       <c r="F4">
-        <v>0.9641291224498093</v>
+        <v>1.09707130875045</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045268637737616</v>
+        <v>1.035562981794735</v>
       </c>
       <c r="J4">
-        <v>0.9577759045239179</v>
+        <v>1.095207038626339</v>
       </c>
       <c r="K4">
-        <v>1.044465693123136</v>
+        <v>1.039396164703685</v>
       </c>
       <c r="L4">
-        <v>0.9663386848566301</v>
+        <v>1.093016223342038</v>
       </c>
       <c r="M4">
-        <v>0.974680665622338</v>
+        <v>1.099410046338128</v>
       </c>
       <c r="N4">
-        <v>0.9591360561667736</v>
+        <v>1.096762358243192</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9442859988249692</v>
+        <v>1.091979871746557</v>
       </c>
       <c r="D5">
-        <v>1.03576139913326</v>
+        <v>1.037069801690718</v>
       </c>
       <c r="E5">
-        <v>0.962445967509056</v>
+        <v>1.091596872910764</v>
       </c>
       <c r="F5">
-        <v>0.97088166370173</v>
+        <v>1.09800214749844</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045871595703641</v>
+        <v>1.035621759432255</v>
       </c>
       <c r="J5">
-        <v>0.9647330548724443</v>
+        <v>1.096167461697796</v>
       </c>
       <c r="K5">
-        <v>1.045232280532713</v>
+        <v>1.039499345993129</v>
       </c>
       <c r="L5">
-        <v>0.972783212897996</v>
+        <v>1.09389903528981</v>
       </c>
       <c r="M5">
-        <v>0.9811109155400913</v>
+        <v>1.100290234520502</v>
       </c>
       <c r="N5">
-        <v>0.9661030864667909</v>
+        <v>1.097724145225572</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9455475585744526</v>
+        <v>1.09215675762349</v>
       </c>
       <c r="D6">
-        <v>1.035925533239964</v>
+        <v>1.037095842120045</v>
       </c>
       <c r="E6">
-        <v>0.9635575202286278</v>
+        <v>1.09175335656075</v>
       </c>
       <c r="F6">
-        <v>0.9719901830984931</v>
+        <v>1.098158128304331</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045970597925657</v>
+        <v>1.035631578463281</v>
       </c>
       <c r="J6">
-        <v>0.9658747153380099</v>
+        <v>1.096328401730321</v>
       </c>
       <c r="K6">
-        <v>1.045358674749105</v>
+        <v>1.039516627212677</v>
       </c>
       <c r="L6">
-        <v>0.9738407473884036</v>
+        <v>1.094046955234576</v>
       </c>
       <c r="M6">
-        <v>0.9821662332696328</v>
+        <v>1.100437709426954</v>
       </c>
       <c r="N6">
-        <v>0.9672463682211681</v>
+        <v>1.097885313811404</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9367032791456754</v>
+        <v>1.090938559438754</v>
       </c>
       <c r="D7">
-        <v>1.03478296856608</v>
+        <v>1.036916587780225</v>
       </c>
       <c r="E7">
-        <v>0.955766374585947</v>
+        <v>1.090675563566089</v>
       </c>
       <c r="F7">
-        <v>0.9642211114916455</v>
+        <v>1.097083767613324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04527684966249</v>
+        <v>1.035563770540896</v>
       </c>
       <c r="J7">
-        <v>0.957870712814426</v>
+        <v>1.095219893345451</v>
       </c>
       <c r="K7">
-        <v>1.044476097105206</v>
+        <v>1.039397546329859</v>
       </c>
       <c r="L7">
-        <v>0.9664265073587055</v>
+        <v>1.093028040261818</v>
       </c>
       <c r="M7">
-        <v>0.9747682844206769</v>
+        <v>1.099421828499279</v>
       </c>
       <c r="N7">
-        <v>0.9592309990959293</v>
+        <v>1.096775231217479</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.8944068894021654</v>
+        <v>1.085798090569221</v>
       </c>
       <c r="D8">
-        <v>1.029584404033739</v>
+        <v>1.036162392148509</v>
       </c>
       <c r="E8">
-        <v>0.9185667867678876</v>
+        <v>1.086124996075454</v>
       </c>
       <c r="F8">
-        <v>0.9271569906123042</v>
+        <v>1.092546927181295</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041981643154498</v>
+        <v>1.03527303340394</v>
       </c>
       <c r="J8">
-        <v>0.9195945181401579</v>
+        <v>1.09053908541338</v>
       </c>
       <c r="K8">
-        <v>1.040378009729676</v>
+        <v>1.038893456038625</v>
       </c>
       <c r="L8">
-        <v>0.9309758071785692</v>
+        <v>1.088723421144775</v>
       </c>
       <c r="M8">
-        <v>0.9394232667813192</v>
+        <v>1.095129251827845</v>
       </c>
       <c r="N8">
-        <v>0.9209004478348823</v>
+        <v>1.092087776001248</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.7672081837291078</v>
+        <v>1.076543443515051</v>
       </c>
       <c r="D9">
-        <v>1.016669645630544</v>
+        <v>1.034814037402121</v>
       </c>
       <c r="E9">
-        <v>0.8077456410192554</v>
+        <v>1.077922757168827</v>
       </c>
       <c r="F9">
-        <v>0.8171642412747471</v>
+        <v>1.084366662922773</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032611278246884</v>
+        <v>1.034732393033917</v>
       </c>
       <c r="J9">
-        <v>0.8048719618334932</v>
+        <v>1.082099852988376</v>
       </c>
       <c r="K9">
-        <v>1.029497937418665</v>
+        <v>1.037980488802018</v>
       </c>
       <c r="L9">
-        <v>0.8249798125389514</v>
+        <v>1.080954380381415</v>
       </c>
       <c r="M9">
-        <v>0.8341334506542868</v>
+        <v>1.087379135381537</v>
       </c>
       <c r="N9">
-        <v>0.806014972339401</v>
+        <v>1.083636558898208</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.7672081837291078</v>
+        <v>1.070228543173357</v>
       </c>
       <c r="D10">
-        <v>1.016669645630544</v>
+        <v>1.033901380400824</v>
       </c>
       <c r="E10">
-        <v>0.8077456410192554</v>
+        <v>1.072319627274391</v>
       </c>
       <c r="F10">
-        <v>0.8171642412747471</v>
+        <v>1.078776812129345</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032611278246884</v>
+        <v>1.03435216714612</v>
       </c>
       <c r="J10">
-        <v>0.8048719618334932</v>
+        <v>1.076333197543704</v>
       </c>
       <c r="K10">
-        <v>1.029497937418665</v>
+        <v>1.03735449389085</v>
       </c>
       <c r="L10">
-        <v>0.8249798125389514</v>
+        <v>1.07564028882697</v>
       </c>
       <c r="M10">
-        <v>0.8341334506542868</v>
+        <v>1.082076227721406</v>
       </c>
       <c r="N10">
-        <v>0.806014972339401</v>
+        <v>1.07786171414136</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.7672081837291078</v>
+        <v>1.067456666291284</v>
       </c>
       <c r="D11">
-        <v>1.016669645630544</v>
+        <v>1.033502754621064</v>
       </c>
       <c r="E11">
-        <v>0.8077456410192554</v>
+        <v>1.06985870888646</v>
       </c>
       <c r="F11">
-        <v>0.8171642412747471</v>
+        <v>1.076321346016968</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032611278246884</v>
+        <v>1.034182652213086</v>
       </c>
       <c r="J11">
-        <v>0.8048719618334932</v>
+        <v>1.073800044451019</v>
       </c>
       <c r="K11">
-        <v>1.029497937418665</v>
+        <v>1.037079140636121</v>
       </c>
       <c r="L11">
-        <v>0.8249798125389514</v>
+        <v>1.073304669805365</v>
       </c>
       <c r="M11">
-        <v>0.8341334506542868</v>
+        <v>1.079745137520465</v>
       </c>
       <c r="N11">
-        <v>0.806014972339401</v>
+        <v>1.075324963680726</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.7672081837291078</v>
+        <v>1.066421166417073</v>
       </c>
       <c r="D12">
-        <v>1.016669645630544</v>
+        <v>1.033354154947185</v>
       </c>
       <c r="E12">
-        <v>0.8077456410192554</v>
+        <v>1.068939157629157</v>
       </c>
       <c r="F12">
-        <v>0.8171642412747471</v>
+        <v>1.075403777683133</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032611278246884</v>
+        <v>1.034118938598193</v>
       </c>
       <c r="J12">
-        <v>0.8048719618334932</v>
+        <v>1.072853437369337</v>
       </c>
       <c r="K12">
-        <v>1.029497937418665</v>
+        <v>1.036976201384216</v>
       </c>
       <c r="L12">
-        <v>0.8249798125389514</v>
+        <v>1.072431689528706</v>
       </c>
       <c r="M12">
-        <v>0.8341334506542868</v>
+        <v>1.078873794574731</v>
       </c>
       <c r="N12">
-        <v>0.806014972339401</v>
+        <v>1.074377012308411</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.7672081837291078</v>
+        <v>1.066643556167392</v>
       </c>
       <c r="D13">
-        <v>1.016669645630544</v>
+        <v>1.03338605442865</v>
       </c>
       <c r="E13">
-        <v>0.8077456410192554</v>
+        <v>1.069136655374655</v>
       </c>
       <c r="F13">
-        <v>0.8171642412747471</v>
+        <v>1.075600851958568</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032611278246884</v>
+        <v>1.034132639506124</v>
       </c>
       <c r="J13">
-        <v>0.8048719618334932</v>
+        <v>1.073056749015882</v>
       </c>
       <c r="K13">
-        <v>1.029497937418665</v>
+        <v>1.036998312366822</v>
       </c>
       <c r="L13">
-        <v>0.8249798125389514</v>
+        <v>1.072619196193082</v>
       </c>
       <c r="M13">
-        <v>0.8341334506542868</v>
+        <v>1.079060952018984</v>
       </c>
       <c r="N13">
-        <v>0.806014972339401</v>
+        <v>1.074580612680814</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.7672081837291078</v>
+        <v>1.06737119353593</v>
       </c>
       <c r="D14">
-        <v>1.016669645630544</v>
+        <v>1.033490482277436</v>
       </c>
       <c r="E14">
-        <v>0.8077456410192554</v>
+        <v>1.069782811225134</v>
       </c>
       <c r="F14">
-        <v>0.8171642412747471</v>
+        <v>1.076245613113097</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032611278246884</v>
+        <v>1.034177400983498</v>
       </c>
       <c r="J14">
-        <v>0.8048719618334932</v>
+        <v>1.073721914990178</v>
       </c>
       <c r="K14">
-        <v>1.029497937418665</v>
+        <v>1.03707064521915</v>
       </c>
       <c r="L14">
-        <v>0.8249798125389514</v>
+        <v>1.07323262107476</v>
       </c>
       <c r="M14">
-        <v>0.8341334506542868</v>
+        <v>1.079673225034027</v>
       </c>
       <c r="N14">
-        <v>0.806014972339401</v>
+        <v>1.075246723267089</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.7672081837291078</v>
+        <v>1.067818724677491</v>
       </c>
       <c r="D15">
-        <v>1.016669645630544</v>
+        <v>1.033554752706263</v>
       </c>
       <c r="E15">
-        <v>0.8077456410192554</v>
+        <v>1.070180198788813</v>
       </c>
       <c r="F15">
-        <v>0.8171642412747471</v>
+        <v>1.076642135828546</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032611278246884</v>
+        <v>1.034204880374052</v>
       </c>
       <c r="J15">
-        <v>0.8048719618334932</v>
+        <v>1.074130985237815</v>
       </c>
       <c r="K15">
-        <v>1.029497937418665</v>
+        <v>1.037115123831389</v>
       </c>
       <c r="L15">
-        <v>0.8249798125389514</v>
+        <v>1.07360984611246</v>
       </c>
       <c r="M15">
-        <v>0.8341334506542868</v>
+        <v>1.08004973449229</v>
       </c>
       <c r="N15">
-        <v>0.806014972339401</v>
+        <v>1.075656374441399</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.7672081837291078</v>
+        <v>1.070411691000217</v>
       </c>
       <c r="D16">
-        <v>1.016669645630544</v>
+        <v>1.033927762104891</v>
       </c>
       <c r="E16">
-        <v>0.8077456410192554</v>
+        <v>1.072482198478592</v>
       </c>
       <c r="F16">
-        <v>0.8171642412747471</v>
+        <v>1.078939015417183</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032611278246884</v>
+        <v>1.034363313253227</v>
       </c>
       <c r="J16">
-        <v>0.8048719618334932</v>
+        <v>1.076500531797173</v>
       </c>
       <c r="K16">
-        <v>1.029497937418665</v>
+        <v>1.037372676394541</v>
       </c>
       <c r="L16">
-        <v>0.8249798125389514</v>
+        <v>1.075794547997888</v>
       </c>
       <c r="M16">
-        <v>0.8341334506542868</v>
+        <v>1.082230179908862</v>
       </c>
       <c r="N16">
-        <v>0.806014972339401</v>
+        <v>1.078029286028662</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.7672081837291078</v>
+        <v>1.07202796789994</v>
       </c>
       <c r="D17">
-        <v>1.016669645630544</v>
+        <v>1.034160809474046</v>
       </c>
       <c r="E17">
-        <v>0.8077456410192554</v>
+        <v>1.073916719030672</v>
       </c>
       <c r="F17">
-        <v>0.8171642412747471</v>
+        <v>1.080370246251287</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032611278246884</v>
+        <v>1.034461377959338</v>
       </c>
       <c r="J17">
-        <v>0.8048719618334932</v>
+        <v>1.077977033564314</v>
       </c>
       <c r="K17">
-        <v>1.029497937418665</v>
+        <v>1.037533071961177</v>
       </c>
       <c r="L17">
-        <v>0.8249798125389514</v>
+        <v>1.077155534523563</v>
       </c>
       <c r="M17">
-        <v>0.8341334506542868</v>
+        <v>1.083588414009665</v>
       </c>
       <c r="N17">
-        <v>0.806014972339401</v>
+        <v>1.079507884597669</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.7672081837291078</v>
+        <v>1.072967117078462</v>
       </c>
       <c r="D18">
-        <v>1.016669645630544</v>
+        <v>1.034296411313858</v>
       </c>
       <c r="E18">
-        <v>0.8077456410192554</v>
+        <v>1.074750116705691</v>
       </c>
       <c r="F18">
-        <v>0.8171642412747471</v>
+        <v>1.081201696200107</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032611278246884</v>
+        <v>1.034518108221606</v>
       </c>
       <c r="J18">
-        <v>0.8048719618334932</v>
+        <v>1.078834781195583</v>
       </c>
       <c r="K18">
-        <v>1.029497937418665</v>
+        <v>1.037626214840484</v>
       </c>
       <c r="L18">
-        <v>0.8249798125389514</v>
+        <v>1.077946054396245</v>
       </c>
       <c r="M18">
-        <v>0.8341334506542868</v>
+        <v>1.08437729799562</v>
       </c>
       <c r="N18">
-        <v>0.806014972339401</v>
+        <v>1.08036685032896</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.7672081837291078</v>
+        <v>1.073286740439619</v>
       </c>
       <c r="D19">
-        <v>1.016669645630544</v>
+        <v>1.034342592397649</v>
       </c>
       <c r="E19">
-        <v>0.8077456410192554</v>
+        <v>1.075033725392906</v>
       </c>
       <c r="F19">
-        <v>0.8171642412747471</v>
+        <v>1.081484635790963</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032611278246884</v>
+        <v>1.034537372656925</v>
       </c>
       <c r="J19">
-        <v>0.8048719618334932</v>
+        <v>1.079126669658527</v>
       </c>
       <c r="K19">
-        <v>1.029497937418665</v>
+        <v>1.037657904546174</v>
       </c>
       <c r="L19">
-        <v>0.8249798125389514</v>
+        <v>1.078215044899672</v>
       </c>
       <c r="M19">
-        <v>0.8341334506542868</v>
+        <v>1.08464572547245</v>
       </c>
       <c r="N19">
-        <v>0.806014972339401</v>
+        <v>1.080659153307001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.7672081837291078</v>
+        <v>1.07185493073642</v>
       </c>
       <c r="D20">
-        <v>1.016669645630544</v>
+        <v>1.034135840018171</v>
       </c>
       <c r="E20">
-        <v>0.8077456410192554</v>
+        <v>1.073763155090212</v>
       </c>
       <c r="F20">
-        <v>0.8171642412747471</v>
+        <v>1.080217038237419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032611278246884</v>
+        <v>1.034450905190743</v>
       </c>
       <c r="J20">
-        <v>0.8048719618334932</v>
+        <v>1.077818979677434</v>
       </c>
       <c r="K20">
-        <v>1.029497937418665</v>
+        <v>1.037515905879724</v>
       </c>
       <c r="L20">
-        <v>0.8249798125389514</v>
+        <v>1.077009858653249</v>
       </c>
       <c r="M20">
-        <v>0.8341334506542868</v>
+        <v>1.083443036581283</v>
       </c>
       <c r="N20">
-        <v>0.806014972339401</v>
+        <v>1.079349606256141</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.7672081837291078</v>
+        <v>1.067157087599632</v>
       </c>
       <c r="D21">
-        <v>1.016669645630544</v>
+        <v>1.033459745702191</v>
       </c>
       <c r="E21">
-        <v>0.8077456410192554</v>
+        <v>1.069592687034669</v>
       </c>
       <c r="F21">
-        <v>0.8171642412747471</v>
+        <v>1.076055900773328</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032611278246884</v>
+        <v>1.034164240629631</v>
       </c>
       <c r="J21">
-        <v>0.8048719618334932</v>
+        <v>1.073526199077733</v>
       </c>
       <c r="K21">
-        <v>1.029497937418665</v>
+        <v>1.037049363368445</v>
       </c>
       <c r="L21">
-        <v>0.8249798125389514</v>
+        <v>1.073052134469644</v>
       </c>
       <c r="M21">
-        <v>0.8341334506542868</v>
+        <v>1.079493078844853</v>
       </c>
       <c r="N21">
-        <v>0.806014972339401</v>
+        <v>1.0750507294156</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7672081837291078</v>
+        <v>1.064169081486994</v>
       </c>
       <c r="D22">
-        <v>1.016669645630544</v>
+        <v>1.033031570314304</v>
       </c>
       <c r="E22">
-        <v>0.8077456410192554</v>
+        <v>1.066938852073649</v>
       </c>
       <c r="F22">
-        <v>0.8171642412747471</v>
+        <v>1.073407688904795</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032611278246884</v>
+        <v>1.033979665888499</v>
       </c>
       <c r="J22">
-        <v>0.8048719618334932</v>
+        <v>1.07079415626793</v>
       </c>
       <c r="K22">
-        <v>1.029497937418665</v>
+        <v>1.036752198085251</v>
       </c>
       <c r="L22">
-        <v>0.8249798125389514</v>
+        <v>1.070532233058336</v>
       </c>
       <c r="M22">
-        <v>0.8341334506542868</v>
+        <v>1.076977802080197</v>
       </c>
       <c r="N22">
-        <v>0.806014972339401</v>
+        <v>1.072314806791637</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.7672081837291078</v>
+        <v>1.06575642309962</v>
       </c>
       <c r="D23">
-        <v>1.016669645630544</v>
+        <v>1.033258852305796</v>
       </c>
       <c r="E23">
-        <v>0.8077456410192554</v>
+        <v>1.068348787229182</v>
       </c>
       <c r="F23">
-        <v>0.8171642412747471</v>
+        <v>1.074814665387155</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032611278246884</v>
+        <v>1.034077929066181</v>
       </c>
       <c r="J23">
-        <v>0.8048719618334932</v>
+        <v>1.072245678131476</v>
       </c>
       <c r="K23">
-        <v>1.029497937418665</v>
+        <v>1.036910099662714</v>
       </c>
       <c r="L23">
-        <v>0.8249798125389514</v>
+        <v>1.071871148482992</v>
       </c>
       <c r="M23">
-        <v>0.8341334506542868</v>
+        <v>1.078314289599432</v>
       </c>
       <c r="N23">
-        <v>0.806014972339401</v>
+        <v>1.073768389982721</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.7672081837291078</v>
+        <v>1.071933129882132</v>
       </c>
       <c r="D24">
-        <v>1.016669645630544</v>
+        <v>1.034147123661731</v>
       </c>
       <c r="E24">
-        <v>0.8077456410192554</v>
+        <v>1.073832554311196</v>
       </c>
       <c r="F24">
-        <v>0.8171642412747471</v>
+        <v>1.080286276719955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032611278246884</v>
+        <v>1.034455638833027</v>
       </c>
       <c r="J24">
-        <v>0.8048719618334932</v>
+        <v>1.077890408134508</v>
       </c>
       <c r="K24">
-        <v>1.029497937418665</v>
+        <v>1.037523663768772</v>
       </c>
       <c r="L24">
-        <v>0.8249798125389514</v>
+        <v>1.07707569355409</v>
       </c>
       <c r="M24">
-        <v>0.8341334506542868</v>
+        <v>1.083508736723312</v>
       </c>
       <c r="N24">
-        <v>0.806014972339401</v>
+        <v>1.079421136149817</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.7672081837291078</v>
+        <v>1.078960586154284</v>
       </c>
       <c r="D25">
-        <v>1.016669645630544</v>
+        <v>1.035164987776235</v>
       </c>
       <c r="E25">
-        <v>0.8077456410192554</v>
+        <v>1.080066147066145</v>
       </c>
       <c r="F25">
-        <v>0.8171642412747471</v>
+        <v>1.086504622373916</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032611278246884</v>
+        <v>1.034875593896271</v>
       </c>
       <c r="J25">
-        <v>0.8048719618334932</v>
+        <v>1.084305448770311</v>
       </c>
       <c r="K25">
-        <v>1.029497937418665</v>
+        <v>1.038219514060957</v>
       </c>
       <c r="L25">
-        <v>0.8249798125389514</v>
+        <v>1.082985763919559</v>
       </c>
       <c r="M25">
-        <v>0.8341334506542868</v>
+        <v>1.089405887414619</v>
       </c>
       <c r="N25">
-        <v>0.806014972339401</v>
+        <v>1.085845286879137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_145/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_145/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.084461850806488</v>
+        <v>0.8816449903389046</v>
       </c>
       <c r="D2">
-        <v>1.035966942793223</v>
+        <v>1.028103444018581</v>
       </c>
       <c r="E2">
-        <v>1.084941446035002</v>
+        <v>0.9073673515748975</v>
       </c>
       <c r="F2">
-        <v>1.091366756559735</v>
+        <v>0.9160096503938546</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035196290025188</v>
+        <v>1.040999223751635</v>
       </c>
       <c r="J2">
-        <v>1.089321515017736</v>
+        <v>0.9080505629684672</v>
       </c>
       <c r="K2">
-        <v>1.038762032748761</v>
+        <v>1.039184659728659</v>
       </c>
       <c r="L2">
-        <v>1.087603161880338</v>
+        <v>0.9202881644203229</v>
       </c>
       <c r="M2">
-        <v>1.094011932972122</v>
+        <v>0.9287779276551503</v>
       </c>
       <c r="N2">
-        <v>1.090868476515985</v>
+        <v>0.9093400989227379</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.088400404273401</v>
+        <v>0.9169609030197232</v>
       </c>
       <c r="D3">
-        <v>1.036543744345057</v>
+        <v>1.032301383465089</v>
       </c>
       <c r="E3">
-        <v>1.088429186497859</v>
+        <v>0.9383891487117505</v>
       </c>
       <c r="F3">
-        <v>1.094844316924935</v>
+        <v>0.9469005220890334</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035421127384873</v>
+        <v>1.04373275805737</v>
       </c>
       <c r="J3">
-        <v>1.092909335410998</v>
+        <v>0.9400031929107221</v>
       </c>
       <c r="K3">
-        <v>1.039148956674079</v>
+        <v>1.042536993280769</v>
       </c>
       <c r="L3">
-        <v>1.090903600364728</v>
+        <v>0.9498761620790767</v>
       </c>
       <c r="M3">
-        <v>1.097303484020031</v>
+        <v>0.9582611421112807</v>
       </c>
       <c r="N3">
-        <v>1.094461392025734</v>
+        <v>0.9413381052645288</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.090924434630436</v>
+        <v>0.9365985212919592</v>
       </c>
       <c r="D4">
-        <v>1.036914510511331</v>
+        <v>1.034769548930214</v>
       </c>
       <c r="E4">
-        <v>1.090663065324709</v>
+        <v>0.9556741125138939</v>
       </c>
       <c r="F4">
-        <v>1.09707130875045</v>
+        <v>0.9641291224498096</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035562981794735</v>
+        <v>1.045268637737617</v>
       </c>
       <c r="J4">
-        <v>1.095207038626339</v>
+        <v>0.9577759045239186</v>
       </c>
       <c r="K4">
-        <v>1.039396164703685</v>
+        <v>1.044465693123137</v>
       </c>
       <c r="L4">
-        <v>1.093016223342038</v>
+        <v>0.9663386848566307</v>
       </c>
       <c r="M4">
-        <v>1.099410046338128</v>
+        <v>0.9746806656223383</v>
       </c>
       <c r="N4">
-        <v>1.096762358243192</v>
+        <v>0.9591360561667741</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.091979871746557</v>
+        <v>0.9442859988249706</v>
       </c>
       <c r="D5">
-        <v>1.037069801690718</v>
+        <v>1.035761399133261</v>
       </c>
       <c r="E5">
-        <v>1.091596872910764</v>
+        <v>0.9624459675090575</v>
       </c>
       <c r="F5">
-        <v>1.09800214749844</v>
+        <v>0.9708816637017313</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035621759432255</v>
+        <v>1.045871595703642</v>
       </c>
       <c r="J5">
-        <v>1.096167461697796</v>
+        <v>0.9647330548724454</v>
       </c>
       <c r="K5">
-        <v>1.039499345993129</v>
+        <v>1.045232280532713</v>
       </c>
       <c r="L5">
-        <v>1.09389903528981</v>
+        <v>0.9727832128979971</v>
       </c>
       <c r="M5">
-        <v>1.100290234520502</v>
+        <v>0.9811109155400927</v>
       </c>
       <c r="N5">
-        <v>1.097724145225572</v>
+        <v>0.9661030864667927</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.09215675762349</v>
+        <v>0.9455475585744496</v>
       </c>
       <c r="D6">
-        <v>1.037095842120045</v>
+        <v>1.035925533239964</v>
       </c>
       <c r="E6">
-        <v>1.09175335656075</v>
+        <v>0.9635575202286252</v>
       </c>
       <c r="F6">
-        <v>1.098158128304331</v>
+        <v>0.9719901830984906</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035631578463281</v>
+        <v>1.045970597925657</v>
       </c>
       <c r="J6">
-        <v>1.096328401730321</v>
+        <v>0.9658747153380073</v>
       </c>
       <c r="K6">
-        <v>1.039516627212677</v>
+        <v>1.045358674749104</v>
       </c>
       <c r="L6">
-        <v>1.094046955234576</v>
+        <v>0.973840747388401</v>
       </c>
       <c r="M6">
-        <v>1.100437709426954</v>
+        <v>0.9821662332696304</v>
       </c>
       <c r="N6">
-        <v>1.097885313811404</v>
+        <v>0.9672463682211656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C7">
-        <v>1.090938559438754</v>
+        <v>0.9367032791456723</v>
       </c>
       <c r="D7">
-        <v>1.036916587780225</v>
+        <v>1.03478296856608</v>
       </c>
       <c r="E7">
-        <v>1.090675563566089</v>
+        <v>0.9557663745859444</v>
       </c>
       <c r="F7">
-        <v>1.097083767613324</v>
+        <v>0.9642211114916431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035563770540896</v>
+        <v>1.045276849662489</v>
       </c>
       <c r="J7">
-        <v>1.095219893345451</v>
+        <v>0.9578707128144234</v>
       </c>
       <c r="K7">
-        <v>1.039397546329859</v>
+        <v>1.044476097105205</v>
       </c>
       <c r="L7">
-        <v>1.093028040261818</v>
+        <v>0.9664265073587031</v>
       </c>
       <c r="M7">
-        <v>1.099421828499279</v>
+        <v>0.9747682844206746</v>
       </c>
       <c r="N7">
-        <v>1.096775231217479</v>
+        <v>0.9592309990959267</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.085798090569221</v>
+        <v>0.8944068894021662</v>
       </c>
       <c r="D8">
-        <v>1.036162392148509</v>
+        <v>1.029584404033738</v>
       </c>
       <c r="E8">
-        <v>1.086124996075454</v>
+        <v>0.9185667867678881</v>
       </c>
       <c r="F8">
-        <v>1.092546927181295</v>
+        <v>0.9271569906123044</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03527303340394</v>
+        <v>1.041981643154498</v>
       </c>
       <c r="J8">
-        <v>1.09053908541338</v>
+        <v>0.9195945181401585</v>
       </c>
       <c r="K8">
-        <v>1.038893456038625</v>
+        <v>1.040378009729675</v>
       </c>
       <c r="L8">
-        <v>1.088723421144775</v>
+        <v>0.9309758071785695</v>
       </c>
       <c r="M8">
-        <v>1.095129251827845</v>
+        <v>0.9394232667813196</v>
       </c>
       <c r="N8">
-        <v>1.092087776001248</v>
+        <v>0.9209004478348829</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.076543443515051</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D9">
-        <v>1.034814037402121</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E9">
-        <v>1.077922757168827</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F9">
-        <v>1.084366662922773</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034732393033917</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J9">
-        <v>1.082099852988376</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K9">
-        <v>1.037980488802018</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L9">
-        <v>1.080954380381415</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M9">
-        <v>1.087379135381537</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N9">
-        <v>1.083636558898208</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.070228543173357</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D10">
-        <v>1.033901380400824</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E10">
-        <v>1.072319627274391</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F10">
-        <v>1.078776812129345</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03435216714612</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J10">
-        <v>1.076333197543704</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K10">
-        <v>1.03735449389085</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L10">
-        <v>1.07564028882697</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M10">
-        <v>1.082076227721406</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N10">
-        <v>1.07786171414136</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067456666291284</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D11">
-        <v>1.033502754621064</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E11">
-        <v>1.06985870888646</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F11">
-        <v>1.076321346016968</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034182652213086</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J11">
-        <v>1.073800044451019</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K11">
-        <v>1.037079140636121</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L11">
-        <v>1.073304669805365</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M11">
-        <v>1.079745137520465</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N11">
-        <v>1.075324963680726</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066421166417073</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D12">
-        <v>1.033354154947185</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E12">
-        <v>1.068939157629157</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F12">
-        <v>1.075403777683133</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034118938598193</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J12">
-        <v>1.072853437369337</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K12">
-        <v>1.036976201384216</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L12">
-        <v>1.072431689528706</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M12">
-        <v>1.078873794574731</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N12">
-        <v>1.074377012308411</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066643556167392</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D13">
-        <v>1.03338605442865</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E13">
-        <v>1.069136655374655</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F13">
-        <v>1.075600851958568</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034132639506124</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J13">
-        <v>1.073056749015882</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K13">
-        <v>1.036998312366822</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L13">
-        <v>1.072619196193082</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M13">
-        <v>1.079060952018984</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N13">
-        <v>1.074580612680814</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06737119353593</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D14">
-        <v>1.033490482277436</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E14">
-        <v>1.069782811225134</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F14">
-        <v>1.076245613113097</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034177400983498</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J14">
-        <v>1.073721914990178</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K14">
-        <v>1.03707064521915</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L14">
-        <v>1.07323262107476</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M14">
-        <v>1.079673225034027</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N14">
-        <v>1.075246723267089</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067818724677491</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D15">
-        <v>1.033554752706263</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E15">
-        <v>1.070180198788813</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F15">
-        <v>1.076642135828546</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034204880374052</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J15">
-        <v>1.074130985237815</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K15">
-        <v>1.037115123831389</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L15">
-        <v>1.07360984611246</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M15">
-        <v>1.08004973449229</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N15">
-        <v>1.075656374441399</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.070411691000217</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D16">
-        <v>1.033927762104891</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E16">
-        <v>1.072482198478592</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F16">
-        <v>1.078939015417183</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034363313253227</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J16">
-        <v>1.076500531797173</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K16">
-        <v>1.037372676394541</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L16">
-        <v>1.075794547997888</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M16">
-        <v>1.082230179908862</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N16">
-        <v>1.078029286028662</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.07202796789994</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D17">
-        <v>1.034160809474046</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E17">
-        <v>1.073916719030672</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F17">
-        <v>1.080370246251287</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034461377959338</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J17">
-        <v>1.077977033564314</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K17">
-        <v>1.037533071961177</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L17">
-        <v>1.077155534523563</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M17">
-        <v>1.083588414009665</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N17">
-        <v>1.079507884597669</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.072967117078462</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D18">
-        <v>1.034296411313858</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E18">
-        <v>1.074750116705691</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F18">
-        <v>1.081201696200107</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034518108221606</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J18">
-        <v>1.078834781195583</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K18">
-        <v>1.037626214840484</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L18">
-        <v>1.077946054396245</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M18">
-        <v>1.08437729799562</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N18">
-        <v>1.08036685032896</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073286740439619</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D19">
-        <v>1.034342592397649</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E19">
-        <v>1.075033725392906</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F19">
-        <v>1.081484635790963</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034537372656925</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J19">
-        <v>1.079126669658527</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K19">
-        <v>1.037657904546174</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L19">
-        <v>1.078215044899672</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M19">
-        <v>1.08464572547245</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N19">
-        <v>1.080659153307001</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.07185493073642</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D20">
-        <v>1.034135840018171</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E20">
-        <v>1.073763155090212</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F20">
-        <v>1.080217038237419</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034450905190743</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J20">
-        <v>1.077818979677434</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K20">
-        <v>1.037515905879724</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L20">
-        <v>1.077009858653249</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M20">
-        <v>1.083443036581283</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N20">
-        <v>1.079349606256141</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.067157087599632</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D21">
-        <v>1.033459745702191</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E21">
-        <v>1.069592687034669</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F21">
-        <v>1.076055900773328</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034164240629631</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J21">
-        <v>1.073526199077733</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K21">
-        <v>1.037049363368445</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L21">
-        <v>1.073052134469644</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M21">
-        <v>1.079493078844853</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N21">
-        <v>1.0750507294156</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064169081486994</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D22">
-        <v>1.033031570314304</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E22">
-        <v>1.066938852073649</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F22">
-        <v>1.073407688904795</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033979665888499</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J22">
-        <v>1.07079415626793</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K22">
-        <v>1.036752198085251</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L22">
-        <v>1.070532233058336</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M22">
-        <v>1.076977802080197</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N22">
-        <v>1.072314806791637</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.06575642309962</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D23">
-        <v>1.033258852305796</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E23">
-        <v>1.068348787229182</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F23">
-        <v>1.074814665387155</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034077929066181</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J23">
-        <v>1.072245678131476</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K23">
-        <v>1.036910099662714</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L23">
-        <v>1.071871148482992</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M23">
-        <v>1.078314289599432</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N23">
-        <v>1.073768389982721</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.071933129882132</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D24">
-        <v>1.034147123661731</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E24">
-        <v>1.073832554311196</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F24">
-        <v>1.080286276719955</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034455638833027</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J24">
-        <v>1.077890408134508</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K24">
-        <v>1.037523663768772</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L24">
-        <v>1.07707569355409</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M24">
-        <v>1.083508736723312</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N24">
-        <v>1.079421136149817</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.078960586154284</v>
+        <v>0.767208183729109</v>
       </c>
       <c r="D25">
-        <v>1.035164987776235</v>
+        <v>1.016669645630544</v>
       </c>
       <c r="E25">
-        <v>1.080066147066145</v>
+        <v>0.8077456410192564</v>
       </c>
       <c r="F25">
-        <v>1.086504622373916</v>
+        <v>0.8171642412747483</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034875593896271</v>
+        <v>1.032611278246884</v>
       </c>
       <c r="J25">
-        <v>1.084305448770311</v>
+        <v>0.8048719618334944</v>
       </c>
       <c r="K25">
-        <v>1.038219514060957</v>
+        <v>1.029497937418665</v>
       </c>
       <c r="L25">
-        <v>1.082985763919559</v>
+        <v>0.8249798125389526</v>
       </c>
       <c r="M25">
-        <v>1.089405887414619</v>
+        <v>0.8341334506542881</v>
       </c>
       <c r="N25">
-        <v>1.085845286879137</v>
+        <v>0.8060149723394026</v>
       </c>
     </row>
   </sheetData>
